--- a/cours3/compo_geo.xlsx
+++ b/cours3/compo_geo.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="6975"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="15600" windowHeight="6915" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data_318" sheetId="3" r:id="rId1"/>
+    <sheet name="data_308" sheetId="1" r:id="rId2"/>
+    <sheet name="data_bore10ppm" sheetId="4" r:id="rId3"/>
+    <sheet name="data_spx" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="47">
   <si>
     <t>O16</t>
   </si>
@@ -122,16 +125,121 @@
   </si>
   <si>
     <t>'C0'</t>
+  </si>
+  <si>
+    <t>Eau (318°C)</t>
+  </si>
+  <si>
+    <t>cellule hexagonale</t>
+  </si>
+  <si>
+    <t>rayon</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>isotope</t>
+  </si>
+  <si>
+    <t>GENERATION DRAGON FILE</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sodium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0°C)</t>
+    </r>
+  </si>
+  <si>
+    <t>'Pu239'</t>
+  </si>
+  <si>
+    <t>'Fe56'</t>
+  </si>
+  <si>
+    <t>'Na23'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,16 +255,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -216,72 +354,303 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,15 +953,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
@@ -607,53 +976,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="23">
         <f>L3^2*PI()/L2^2</f>
         <v>0.33264155018168562</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="7">
         <v>4.6130900000000002E-2</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="11">
-        <f>F2*A$2</f>
-        <v>1.5345054087276322E-2</v>
+      <c r="H2" s="7">
+        <f>F2*A$2+F7*A$6</f>
+        <v>2.7814216654536785E-2</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>21</v>
@@ -669,22 +1038,22 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="7">
         <v>8.0729E-4</v>
       </c>
       <c r="G3" s="20"/>
-      <c r="H3" s="11">
+      <c r="H3" s="7">
         <f>F3*A$2</f>
         <v>2.6853819704617297E-4</v>
       </c>
@@ -702,26 +1071,26 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="7">
         <v>2.2258E-2</v>
       </c>
       <c r="G4" s="20"/>
-      <c r="H4" s="11">
+      <c r="H4" s="7">
         <f>F4*A$2</f>
         <v>7.4039356239439585E-3</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -735,31 +1104,31 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="24">
         <f>PI()*(L5^2-L4^2)/L2^2</f>
         <v>0.11017341432430418</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <v>3.8324299999999999E-2</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="11">
+      <c r="H5" s="7">
         <f>F5*A$5</f>
         <v>4.2223189825889304E-3</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="3" t="s">
         <v>27</v>
       </c>
@@ -770,28 +1139,472 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
         <f>1-L5^2*PI()/L2^2</f>
         <v>0.54407725662188944</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="27">
+        <v>4.5835000000000001E-2</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="7">
+        <f>F6*A$6</f>
+        <v>2.4937781057264304E-2</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="27">
+        <v>2.2918000000000001E-2</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <f>1-A12</f>
+        <v>0.27619926439052422</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.54529E-2</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="7">
+        <f>F9*A$9</f>
+        <v>4.2680796127003316E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6.2199900000000002E-2</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="7">
+        <f t="shared" ref="H10:H11" si="0">F10*A$9</f>
+        <v>1.7179566625164167E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.9390600000000001E-2</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>5.355669456090899E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <f>1-L6^2*PI()/L2^2</f>
+        <v>0.72380073560947578</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="27">
+        <v>4.5835000000000001E-2</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="7">
+        <f>F12*A$12</f>
+        <v>3.3175406716660326E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="27">
+        <v>2.2918000000000001E-2</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="7">
+        <f>F13*A$12</f>
+        <v>1.6588065258697965E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <f>L3^2*PI()/L2^2</f>
+        <v>0.33264155018168562</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4.6130900000000002E-2</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7">
+        <f>F2*A$2+F7*A$6</f>
+        <v>2.8269065241072686E-2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7">
+        <v>8.0729E-4</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="7">
+        <f>F3*A$2</f>
+        <v>2.6853819704617297E-4</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.2258E-2</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="7">
+        <f>F4*A$2</f>
+        <v>7.4039356239439585E-3</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <f>PI()*(L5^2-L4^2)/L2^2</f>
+        <v>0.11017341432430418</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3.8324299999999999E-2</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="7">
+        <f>F5*A$5</f>
+        <v>4.2223189825889304E-3</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <f>1-L5^2*PI()/L2^2</f>
+        <v>0.54407725662188944</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="7">
         <v>4.7508000000000002E-2</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="11">
+      <c r="H6" s="7">
         <f>F6*A$6</f>
         <v>2.5848022307592724E-2</v>
       </c>
@@ -809,155 +1622,176 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <v>2.3754000000000001E-2</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="11">
-        <f>F7*A$6</f>
-        <v>1.2924011153796362E-2</v>
-      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="11"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="23">
         <f>1-A12</f>
         <v>0.27619926439052422</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <v>1.54529E-2</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="7">
         <f>F9*A$9</f>
         <v>4.2680796127003316E-3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="10" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="7">
         <v>6.2199900000000002E-2</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="11">
+      <c r="H10" s="7">
         <f t="shared" ref="H10:H11" si="0">F10*A$9</f>
         <v>1.7179566625164167E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <v>1.9390600000000001E-2</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="11">
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>5.355669456090899E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="23">
         <f>1-L6^2*PI()/L2^2</f>
         <v>0.72380073560947578</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="7">
         <v>4.7508000000000002E-2</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="11">
+      <c r="H12" s="7">
         <f>F12*A$12</f>
         <v>3.4386325347334976E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="7">
         <v>2.3754000000000001E-2</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="11">
+      <c r="G13" s="21"/>
+      <c r="H13" s="7">
         <f>F13*A$12</f>
         <v>1.7193162673667488E-2</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A9:A11"/>
@@ -968,9 +1802,894 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <f>L3^2*PI()/L2^2</f>
+        <v>0.33264155018168562</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4.6130900000000002E-2</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7">
+        <f>F2*A$2+F9*A$6</f>
+        <v>2.8269065241072686E-2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7">
+        <v>8.0729E-4</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="7">
+        <f>F3*A$2</f>
+        <v>2.6853819704617297E-4</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.2258E-2</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="7">
+        <f>F4*A$2</f>
+        <v>7.4039356239439585E-3</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <f>PI()*(L5^2-L4^2)/L2^2</f>
+        <v>0.11017341432430418</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3.8324299999999999E-2</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="7">
+        <f>F5*A$5</f>
+        <v>4.2223189825889304E-3</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <f>1-L5^2*PI()/L2^2</f>
+        <v>0.54407725662188944</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4.7508000000000002E-2</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="7">
+        <f>F6*A$6</f>
+        <v>2.5848022307592724E-2</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7">
+        <f>0.00001*F9*18/11*0.2</f>
+        <v>7.7740363636363637E-8</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="7">
+        <f t="shared" ref="H7:H8" si="0">F7*A$6</f>
+        <v>4.2296763776060823E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7">
+        <f>0.00001*F9*18/11*0.8</f>
+        <v>3.1096145454545455E-7</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6918705510424329E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2.3754000000000001E-2</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <f>1-A14</f>
+        <v>0.27619926439052422</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.54529E-2</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7">
+        <f>F11*A$11+A14*F15</f>
+        <v>4.268135881232718E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7">
+        <v>6.2199900000000002E-2</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="7">
+        <f>F12*A$11+A14*F16</f>
+        <v>1.7179791699293713E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.9390600000000001E-2</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="7">
+        <f t="shared" ref="H12:H13" si="1">F13*A$11</f>
+        <v>5.355669456090899E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <f>1-L6^2*PI()/L2^2</f>
+        <v>0.72380073560947578</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4.7508000000000002E-2</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="7">
+        <f>F14*A$14</f>
+        <v>3.4386325347334976E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7">
+        <f>0.00001*F17*18/11*0.2</f>
+        <v>7.7740363636363637E-8</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="7">
+        <f>0.00001*F17*18/11*0.8</f>
+        <v>3.1096145454545455E-7</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2.3754000000000001E-2</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="7">
+        <f>F17*A$14</f>
+        <v>1.7193162673667488E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="G11:G17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="G2:G9"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H18:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="11" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <f>L3^2*PI()/(3*3^0.5/2*L2^2)</f>
+        <v>0.52359671921329498</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="7">
+        <f>K10</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7">
+        <f>F2*A$2</f>
+        <v>1.3089917980332374E-3</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7">
+        <f>K11</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="7">
+        <f>F3*A$2</f>
+        <v>8.9011442266260146E-3</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="33">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <f>K12</f>
+        <v>3.9E-2</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="7">
+        <f>F4*A$2</f>
+        <v>2.0420272049318504E-2</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="33">
+        <v>0.42925999999999997</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <f>PI()*(L4^2-L3^2)/(3*3^0.5/2*L2^2)</f>
+        <v>0.18690114168815064</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="7">
+        <f>L13</f>
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="48"/>
+      <c r="H5" s="7">
+        <f>F5*A$5</f>
+        <v>9.3450570844075317E-3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49">
+        <f>1-A5-A2</f>
+        <v>0.28950213909855438</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="7">
+        <f>M14</f>
+        <v>2.3095999999999998E-2</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="7">
+        <f>F6*A$6</f>
+        <v>6.6863414046202116E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <f>1-A11</f>
+        <v>0.53819005380472962</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.54529E-2</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7">
+        <f>F8*A$8</f>
+        <v>8.3165970824391061E-3</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="44"/>
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7">
+        <v>6.2199900000000002E-2</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="7">
+        <f t="shared" ref="H9:H10" si="0">F9*A$8</f>
+        <v>3.3475367527648806E-2</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.9390600000000001E-2</v>
+      </c>
+      <c r="G10" s="48"/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0435828057305991E-2</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="50">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
+        <f>1-L5^2*PI()/(3*3^0.5/2*L2^2)</f>
+        <v>0.46180994619527038</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7">
+        <f>F6</f>
+        <v>2.3095999999999998E-2</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="7">
+        <f>F11*A$11</f>
+        <v>1.0665962517325964E-2</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="50">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="J12" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="50">
+        <f>(K11+K10)*2</f>
+        <v>3.9E-2</v>
+      </c>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="J13" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="51"/>
+      <c r="L13" s="50">
+        <v>0.05</v>
+      </c>
+      <c r="M13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="J14" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50">
+        <v>2.3095999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/cours3/compo_geo.xlsx
+++ b/cours3/compo_geo.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="15600" windowHeight="6915" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="15600" windowHeight="6915" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="data_318" sheetId="3" r:id="rId1"/>
     <sheet name="data_308" sheetId="1" r:id="rId2"/>
     <sheet name="data_bore10ppm" sheetId="4" r:id="rId3"/>
-    <sheet name="data_spx" sheetId="5" r:id="rId4"/>
+    <sheet name="poids" sheetId="6" r:id="rId4"/>
+    <sheet name="data_spx" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="80">
   <si>
     <t>O16</t>
   </si>
@@ -230,14 +231,115 @@
   <si>
     <t>'Na23'</t>
   </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>TRACKING</t>
+  </si>
+  <si>
+    <t>TIMES</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>CALLED</t>
+  </si>
+  <si>
+    <t>KINF</t>
+  </si>
+  <si>
+    <t>KEFF</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>PRECISION</t>
+  </si>
+  <si>
+    <t>ext,d,result:</t>
+  </si>
+  <si>
+    <t>int,d,result:</t>
+  </si>
+  <si>
+    <t>TGE,d,result:</t>
+  </si>
+  <si>
+    <t>TGI,d,result:</t>
+  </si>
+  <si>
+    <t>core_10,d,result:</t>
+  </si>
+  <si>
+    <t>core_20,d,result:</t>
+  </si>
+  <si>
+    <t>core_30,d,result:</t>
+  </si>
+  <si>
+    <t>core_40,d,result:</t>
+  </si>
+  <si>
+    <t>core_50,d,result:</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>run/rep2D,d,result:</t>
+  </si>
+  <si>
+    <t>run/rep2D,mod_318,d,result:</t>
+  </si>
+  <si>
+    <t>run/rep2D,bore_p10,d,result:</t>
+  </si>
+  <si>
+    <t>run/spx,40,d,result:</t>
+  </si>
+  <si>
+    <t>run/spx,50,d,result:</t>
+  </si>
+  <si>
+    <t>run/spx,ext,d,result:</t>
+  </si>
+  <si>
+    <t>run/spx,int,d,result:</t>
+  </si>
+  <si>
+    <t>run/spx,TGE,d,result:</t>
+  </si>
+  <si>
+    <t>run/spx,TGI,d,result:</t>
+  </si>
+  <si>
+    <t>run/spx,70,d,result:</t>
+  </si>
+  <si>
+    <t>run/spx,0,d,result:</t>
+  </si>
+  <si>
+    <t>run/spx,20,d,result:</t>
+  </si>
+  <si>
+    <t>run/spx,90,d,result:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -507,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -543,33 +645,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -579,15 +654,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -610,33 +676,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -652,6 +691,73 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,6 +770,467 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>poids!$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>poids!$K$17:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>poids!$L$17:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>593.08678034825061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2135.7713278130268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4116.8532596852347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5670.3446639064878</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6365.8244053405879</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00000">
+                  <c:v>6454.2011139154683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="53947776"/>
+        <c:axId val="90695168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="53947776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>insertion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> des rideaux</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90695168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="90695168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>antiréactivité (pcm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53947776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>poids!$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>poids!$K$79:$K$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>poids!$L$79:$L$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4837.7703648155157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4944.4691588669275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5330.425230513003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5563.3467170063032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5903.7978372750003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5977.1201756168002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="90740224"/>
+        <c:axId val="90742144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="90740224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>insertion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> des rideaux</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90742144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="90742144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6000"/>
+          <c:min val="4500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>antiréactivité (pcm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90740224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -956,7 +1523,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,33 +1543,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="36">
         <f>L3^2*PI()/L2^2</f>
         <v>0.33264155018168562</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1017,7 +1584,7 @@
       <c r="F2" s="7">
         <v>4.6130900000000002E-2</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="38" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="7">
@@ -1038,8 +1605,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1619,7 @@
       <c r="F3" s="7">
         <v>8.0729E-4</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="7">
         <f>F3*A$2</f>
         <v>2.6853819704617297E-4</v>
@@ -1071,8 +1638,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1085,12 +1652,12 @@
       <c r="F4" s="7">
         <v>2.2258E-2</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="7">
         <f>F4*A$2</f>
         <v>7.4039356239439585E-3</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="41" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1104,7 +1671,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="15">
         <f>PI()*(L5^2-L4^2)/L2^2</f>
         <v>0.11017341432430418</v>
       </c>
@@ -1123,12 +1690,12 @@
       <c r="F5" s="7">
         <v>3.8324299999999999E-2</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="7">
         <f>F5*A$5</f>
         <v>4.2223189825889304E-3</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1140,11 +1707,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="36">
         <f>1-L5^2*PI()/L2^2</f>
         <v>0.54407725662188944</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="43" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1156,10 +1723,10 @@
       <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="18">
         <v>4.5835000000000001E-2</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="7">
         <f>F6*A$6</f>
         <v>2.4937781057264304E-2</v>
@@ -1178,8 +1745,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1189,14 +1756,14 @@
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="18">
         <v>2.2918000000000001E-2</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="12"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1206,11 +1773,11 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="36">
         <f>1-A12</f>
         <v>0.27619926439052422</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1225,7 +1792,7 @@
       <c r="F9" s="7">
         <v>1.54529E-2</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="38" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="7">
@@ -1234,8 +1801,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1248,15 +1815,15 @@
       <c r="F10" s="7">
         <v>6.2199900000000002E-2</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="7">
         <f t="shared" ref="H10:H11" si="0">F10*A$9</f>
         <v>1.7179566625164167E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1269,18 +1836,18 @@
       <c r="F11" s="7">
         <v>1.9390600000000001E-2</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>5.355669456090899E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+      <c r="A12" s="36">
         <f>1-L6^2*PI()/L2^2</f>
         <v>0.72380073560947578</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="43" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1292,18 +1859,18 @@
       <c r="E12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="18">
         <v>4.5835000000000001E-2</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="7">
         <f>F12*A$12</f>
         <v>3.3175406716660326E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1313,20 +1880,20 @@
       <c r="E13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="18">
         <v>2.2918000000000001E-2</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="7">
         <f>F13*A$12</f>
         <v>1.6588065258697965E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="17"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="17"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -1400,7 +1967,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G13"/>
+      <selection activeCell="H12" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,33 +1987,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="36">
         <f>L3^2*PI()/L2^2</f>
         <v>0.33264155018168562</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1461,7 +2028,7 @@
       <c r="F2" s="7">
         <v>4.6130900000000002E-2</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="38" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="7">
@@ -1482,8 +2049,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +2063,7 @@
       <c r="F3" s="7">
         <v>8.0729E-4</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="7">
         <f>F3*A$2</f>
         <v>2.6853819704617297E-4</v>
@@ -1515,8 +2082,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1529,12 +2096,12 @@
       <c r="F4" s="7">
         <v>2.2258E-2</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="7">
         <f>F4*A$2</f>
         <v>7.4039356239439585E-3</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="41" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1548,7 +2115,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="15">
         <f>PI()*(L5^2-L4^2)/L2^2</f>
         <v>0.11017341432430418</v>
       </c>
@@ -1567,12 +2134,12 @@
       <c r="F5" s="7">
         <v>3.8324299999999999E-2</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="7">
         <f>F5*A$5</f>
         <v>4.2223189825889304E-3</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1584,11 +2151,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="36">
         <f>1-L5^2*PI()/L2^2</f>
         <v>0.54407725662188944</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1603,7 +2170,7 @@
       <c r="F6" s="7">
         <v>4.7508000000000002E-2</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="7">
         <f>F6*A$6</f>
         <v>2.5848022307592724E-2</v>
@@ -1622,8 +2189,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1636,11 +2203,11 @@
       <c r="F7" s="7">
         <v>2.3754000000000001E-2</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="9"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1650,11 +2217,11 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="36">
         <f>1-A12</f>
         <v>0.27619926439052422</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1669,7 +2236,7 @@
       <c r="F9" s="7">
         <v>1.54529E-2</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="38" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="7">
@@ -1678,8 +2245,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1692,15 +2259,15 @@
       <c r="F10" s="7">
         <v>6.2199900000000002E-2</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="7">
         <f t="shared" ref="H10:H11" si="0">F10*A$9</f>
         <v>1.7179566625164167E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1713,18 +2280,18 @@
       <c r="F11" s="7">
         <v>1.9390600000000001E-2</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>5.355669456090899E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="36">
         <f>1-L6^2*PI()/L2^2</f>
         <v>0.72380073560947578</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1739,15 +2306,15 @@
       <c r="F12" s="7">
         <v>4.7508000000000002E-2</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="7">
         <f>F12*A$12</f>
         <v>3.4386325347334976E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1760,17 +2327,17 @@
       <c r="F13" s="7">
         <v>2.3754000000000001E-2</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="7">
         <f>F13*A$12</f>
         <v>1.7193162673667488E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="17"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="17"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -1813,7 +2380,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,39 +2394,40 @@
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="36">
         <f>L3^2*PI()/L2^2</f>
         <v>0.33264155018168562</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1874,7 +2442,7 @@
       <c r="F2" s="7">
         <v>4.6130900000000002E-2</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="38" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="7">
@@ -1895,8 +2463,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1909,7 +2477,7 @@
       <c r="F3" s="7">
         <v>8.0729E-4</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="7">
         <f>F3*A$2</f>
         <v>2.6853819704617297E-4</v>
@@ -1928,8 +2496,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1942,12 +2510,12 @@
       <c r="F4" s="7">
         <v>2.2258E-2</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="7">
         <f>F4*A$2</f>
         <v>7.4039356239439585E-3</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="41" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1961,7 +2529,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="15">
         <f>PI()*(L5^2-L4^2)/L2^2</f>
         <v>0.11017341432430418</v>
       </c>
@@ -1980,12 +2548,12 @@
       <c r="F5" s="7">
         <v>3.8324299999999999E-2</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="7">
         <f>F5*A$5</f>
         <v>4.2223189825889304E-3</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1997,11 +2565,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="36">
         <f>1-L5^2*PI()/L2^2</f>
         <v>0.54407725662188944</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2016,7 +2584,7 @@
       <c r="F6" s="7">
         <v>4.7508000000000002E-2</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="7">
         <f>F6*A$6</f>
         <v>2.5848022307592724E-2</v>
@@ -2035,8 +2603,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
@@ -2050,15 +2618,15 @@
         <f>0.00001*F9*18/11*0.2</f>
         <v>7.7740363636363637E-8</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="7">
         <f t="shared" ref="H7:H8" si="0">F7*A$6</f>
         <v>4.2296763776060823E-8</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2072,15 +2640,19 @@
         <f>0.00001*F9*18/11*0.8</f>
         <v>3.1096145454545455E-7</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>1.6918705510424329E-7</v>
       </c>
+      <c r="I8" s="34">
+        <f>0.001/1000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
@@ -2093,11 +2665,11 @@
       <c r="F9" s="7">
         <v>2.3754000000000001E-2</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="12"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2107,11 +2679,11 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="36">
         <f>1-A14</f>
         <v>0.27619926439052422</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2126,7 +2698,7 @@
       <c r="F11" s="7">
         <v>1.54529E-2</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="38" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="7">
@@ -2135,8 +2707,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
@@ -2149,15 +2721,16 @@
       <c r="F12" s="7">
         <v>6.2199900000000002E-2</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="7">
         <f>F12*A$11+A14*F16</f>
         <v>1.7179791699293713E-2</v>
       </c>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
@@ -2170,18 +2743,18 @@
       <c r="F13" s="7">
         <v>1.9390600000000001E-2</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="7">
-        <f t="shared" ref="H12:H13" si="1">F13*A$11</f>
+        <f t="shared" ref="H13" si="1">F13*A$11</f>
         <v>5.355669456090899E-3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="36">
         <f>1-L6^2*PI()/L2^2</f>
         <v>0.72380073560947578</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2196,15 +2769,25 @@
       <c r="F14" s="7">
         <v>4.7508000000000002E-2</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="7">
         <f>F14*A$14</f>
         <v>3.4386325347334976E-2</v>
       </c>
+      <c r="K14" s="31">
+        <v>7.9999999999999996E-7</v>
+      </c>
+      <c r="L14">
+        <v>11000</v>
+      </c>
+      <c r="M14" s="31">
+        <f>L14*K14</f>
+        <v>8.7999999999999988E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
@@ -2218,12 +2801,24 @@
         <f>0.00001*F17*18/11*0.2</f>
         <v>7.7740363636363637E-8</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="7"/>
+      <c r="K15">
+        <f>H6/2</f>
+        <v>1.2924011153796362E-2</v>
+      </c>
+      <c r="L15">
+        <f>0.018</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M15">
+        <f>L15*K15</f>
+        <v>2.326322007683345E-4</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2237,12 +2832,16 @@
         <f>0.00001*F17*18/11*0.8</f>
         <v>3.1096145454545455E-7</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="18"/>
+      <c r="M16" s="31">
+        <f>M14/M15</f>
+        <v>37.827953185051243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
@@ -2255,31 +2854,43 @@
       <c r="F17" s="7">
         <v>2.3754000000000001E-2</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="7">
         <f>F17*A$14</f>
         <v>1.7193162673667488E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="K18" s="2">
+        <f>H8+H7</f>
+        <v>2.114838188803041E-7</v>
+      </c>
+      <c r="L18" s="2">
+        <f>K18*11</f>
+        <v>2.3263220076833451E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K20" s="2">
+        <f>L18*1000/M15</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
   </sheetData>
@@ -2305,10 +2916,1563 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1">
+        <v>426</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="31">
+        <v>1.0888439999999999</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="32">
+        <v>0.96121259999999997</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="31">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="31">
+        <v>6.5799999999999997E-6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="31">
+        <v>1.1469480000000001</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="32">
+        <v>0.99393759999999998</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="31">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="31">
+        <v>9.3599999999999998E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="31">
+        <v>1.150763</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="32">
+        <v>0.99997130000000001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="31">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="31">
+        <v>1.3E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="31">
+        <v>1.0682050000000001</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="32">
+        <v>0.93937110000000001</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="31">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="31">
+        <v>6.2399999999999998E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L6" s="33">
+        <f>(1-L1)/(L1)*100000</f>
+        <v>4035.2571325011791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L7" s="33">
+        <f t="shared" ref="L7" si="0">(1-L2)/(L2)*100000</f>
+        <v>609.93768622899699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="33">
+        <f>(1-L4)/(L4)*100000</f>
+        <v>6454.2011139154683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="31">
+        <v>1.1362699999999999</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="32">
+        <v>0.99410410000000005</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="31">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="31">
+        <v>7.4399999999999999E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="31">
+        <v>1.123062</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="32">
+        <v>0.97908890000000004</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="31">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="31">
+        <v>5.8000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="31">
+        <v>1.1021609999999999</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="32">
+        <v>0.96045930000000002</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="31">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="31">
+        <v>3.0800000000000002E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="31">
+        <v>1.0865039999999999</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="32">
+        <v>0.94633929999999999</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="31">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="31">
+        <v>9.0699999999999996E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>122</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="31">
+        <v>1.0720719999999999</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="32">
+        <v>0.94015159999999998</v>
+      </c>
+      <c r="M14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="31">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="31">
+        <v>2.1399999999999998E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18" s="33">
+        <f>(1-L10)/(L10)*100000</f>
+        <v>593.08678034825061</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19" s="33">
+        <f>(1-L11)/(L11)*100000</f>
+        <v>2135.7713278130268</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="L20" s="33">
+        <f>(1-L12)/(L12)*100000</f>
+        <v>4116.8532596852347</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>40</v>
+      </c>
+      <c r="L21" s="33">
+        <f>(1-L13)/(L13)*100000</f>
+        <v>5670.3446639064878</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>50</v>
+      </c>
+      <c r="L22" s="33">
+        <f>(1-L14)/(L14)*100000</f>
+        <v>6365.8244053405879</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>60</v>
+      </c>
+      <c r="L23" s="32">
+        <f>L8</f>
+        <v>6454.2011139154683</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34">
+        <v>118</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="31">
+        <v>1.10494</v>
+      </c>
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" s="32">
+        <v>0.96287699999999998</v>
+      </c>
+      <c r="M34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" s="31">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P34" s="31">
+        <v>1.2300000000000001E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35">
+        <v>103</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="31">
+        <v>1.0958779999999999</v>
+      </c>
+      <c r="J35" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="32">
+        <v>0.95008570000000003</v>
+      </c>
+      <c r="M35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N35" s="31">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P35" s="31">
+        <v>3.9599999999999997E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L37" s="32">
+        <f>(L35-L34)/(L35*L34)*100000</f>
+        <v>-1398.2379663599286</v>
+      </c>
+      <c r="M37">
+        <f>(L34-L35)/L34/(0.685-0.71)</f>
+        <v>-0.53137835881426165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L38" s="32">
+        <f>L37/10</f>
+        <v>-139.82379663599286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40">
+        <v>118</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="31">
+        <v>1.104201</v>
+      </c>
+      <c r="J40" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" s="32">
+        <v>0.96223259999999999</v>
+      </c>
+      <c r="M40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" s="31">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>55</v>
+      </c>
+      <c r="P40" s="31">
+        <v>5.8699999999999997E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41">
+        <v>118</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="31">
+        <v>1.10494</v>
+      </c>
+      <c r="J41" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" s="32">
+        <v>0.96287699999999998</v>
+      </c>
+      <c r="M41" t="s">
+        <v>54</v>
+      </c>
+      <c r="N41" s="31">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="31">
+        <v>1.2300000000000001E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42">
+        <v>103</v>
+      </c>
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="31">
+        <v>1.0958779999999999</v>
+      </c>
+      <c r="J42" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" s="32">
+        <v>0.95008570000000003</v>
+      </c>
+      <c r="M42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N42" s="31">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>55</v>
+      </c>
+      <c r="P42" s="31">
+        <v>3.9599999999999997E-8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L44" s="32">
+        <f>(L41-L40)/(L41*L40)*100000</f>
+        <v>69.55120397226905</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L45" s="32">
+        <f>L44/10</f>
+        <v>6.9551203972269047</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47">
+        <v>70</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="31">
+        <v>1.300278</v>
+      </c>
+      <c r="J47" t="s">
+        <v>50</v>
+      </c>
+      <c r="K47" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" s="32">
+        <v>0.94729850000000004</v>
+      </c>
+      <c r="M47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47" s="31">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>55</v>
+      </c>
+      <c r="P47" s="31">
+        <v>2.05E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="31">
+        <v>1.2615339999999999</v>
+      </c>
+      <c r="J48" t="s">
+        <v>50</v>
+      </c>
+      <c r="K48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48" s="32">
+        <v>0.9300756</v>
+      </c>
+      <c r="M48" t="s">
+        <v>54</v>
+      </c>
+      <c r="N48" s="31">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P48" s="31">
+        <v>1.6300000000000001E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="31">
+        <v>1.3596729999999999</v>
+      </c>
+      <c r="J49" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49" t="s">
+        <v>53</v>
+      </c>
+      <c r="L49" s="32">
+        <v>0.99279209999999996</v>
+      </c>
+      <c r="M49" t="s">
+        <v>54</v>
+      </c>
+      <c r="N49" s="31">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>55</v>
+      </c>
+      <c r="P49" s="31">
+        <v>5.9200000000000002E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50">
+        <v>68</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="31">
+        <v>1.363947</v>
+      </c>
+      <c r="J50" t="s">
+        <v>50</v>
+      </c>
+      <c r="K50" t="s">
+        <v>53</v>
+      </c>
+      <c r="L50" s="32">
+        <v>0.99934160000000005</v>
+      </c>
+      <c r="M50" t="s">
+        <v>54</v>
+      </c>
+      <c r="N50" s="31">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>55</v>
+      </c>
+      <c r="P50" s="31">
+        <v>7.6500000000000003E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="31">
+        <v>1.2562059999999999</v>
+      </c>
+      <c r="J51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51" t="s">
+        <v>53</v>
+      </c>
+      <c r="L51" s="32">
+        <v>0.91640160000000004</v>
+      </c>
+      <c r="M51" t="s">
+        <v>54</v>
+      </c>
+      <c r="N51" s="31">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>55</v>
+      </c>
+      <c r="P51" s="31">
+        <v>8.5499999999999995E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M52" s="32"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L53" s="33"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L54" s="33"/>
+      <c r="N54" s="33">
+        <f>L57-L59</f>
+        <v>7452.2581584055552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L55" s="33">
+        <f>(1-L47)/(L47)*100000</f>
+        <v>5563.3467170063032</v>
+      </c>
+      <c r="N55" s="33">
+        <f>L58-L59</f>
+        <v>660.13972430049</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L56" s="33"/>
+      <c r="N56" s="33">
+        <f>L60-L59</f>
+        <v>9056.5799616013937</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L57" s="33">
+        <f>(1-L48)/(L48)*100000</f>
+        <v>7518.1415360213723</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L58" s="33">
+        <f>(1-L49)/(L49)*100000</f>
+        <v>726.02310191630704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L59" s="33">
+        <f>(1-L50)/(L50)*100000</f>
+        <v>65.883377615817039</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L60" s="33">
+        <f>(1-L51)/(L51)*100000</f>
+        <v>9122.4633392172109</v>
+      </c>
+      <c r="M60" s="33"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61">
+        <v>72</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s">
+        <v>50</v>
+      </c>
+      <c r="H61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" s="31">
+        <v>1.3032809999999999</v>
+      </c>
+      <c r="J61" t="s">
+        <v>50</v>
+      </c>
+      <c r="K61" t="s">
+        <v>53</v>
+      </c>
+      <c r="L61" s="32">
+        <v>0.95385470000000006</v>
+      </c>
+      <c r="M61" t="s">
+        <v>54</v>
+      </c>
+      <c r="N61" s="31">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>55</v>
+      </c>
+      <c r="P61" s="31">
+        <v>5.5400000000000003E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62">
+        <v>71</v>
+      </c>
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="31">
+        <v>1.302189</v>
+      </c>
+      <c r="J62" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62" t="s">
+        <v>53</v>
+      </c>
+      <c r="L62" s="32">
+        <v>0.95288490000000003</v>
+      </c>
+      <c r="M62" t="s">
+        <v>54</v>
+      </c>
+      <c r="N62" s="31">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P62" s="31">
+        <v>2.34E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63">
+        <v>72</v>
+      </c>
+      <c r="F63" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" t="s">
+        <v>50</v>
+      </c>
+      <c r="H63" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" s="31">
+        <v>1.3008519999999999</v>
+      </c>
+      <c r="J63" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63" t="s">
+        <v>53</v>
+      </c>
+      <c r="L63" s="32">
+        <v>0.9493933</v>
+      </c>
+      <c r="M63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N63" s="31">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>55</v>
+      </c>
+      <c r="P63" s="31">
+        <v>5.6300000000000003E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64">
+        <v>70</v>
+      </c>
+      <c r="F64" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" s="31">
+        <v>1.300278</v>
+      </c>
+      <c r="J64" t="s">
+        <v>50</v>
+      </c>
+      <c r="K64" t="s">
+        <v>53</v>
+      </c>
+      <c r="L64" s="32">
+        <v>0.94729850000000004</v>
+      </c>
+      <c r="M64" t="s">
+        <v>54</v>
+      </c>
+      <c r="N64" s="31">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>55</v>
+      </c>
+      <c r="P64" s="31">
+        <v>2.05E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65">
+        <v>70</v>
+      </c>
+      <c r="F65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" t="s">
+        <v>52</v>
+      </c>
+      <c r="I65" s="31">
+        <v>1.2991029999999999</v>
+      </c>
+      <c r="J65" t="s">
+        <v>50</v>
+      </c>
+      <c r="K65" t="s">
+        <v>53</v>
+      </c>
+      <c r="L65" s="32">
+        <v>0.94425320000000001</v>
+      </c>
+      <c r="M65" t="s">
+        <v>54</v>
+      </c>
+      <c r="N65" s="31">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>55</v>
+      </c>
+      <c r="P65" s="31">
+        <v>8.1599999999999998E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66">
+        <v>71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" s="31">
+        <v>1.2983070000000001</v>
+      </c>
+      <c r="J66" t="s">
+        <v>50</v>
+      </c>
+      <c r="K66" t="s">
+        <v>53</v>
+      </c>
+      <c r="L66" s="32">
+        <v>0.94359990000000005</v>
+      </c>
+      <c r="M66" t="s">
+        <v>54</v>
+      </c>
+      <c r="N66" s="31">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>55</v>
+      </c>
+      <c r="P66" s="31">
+        <v>2.2500000000000001E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M67" s="32"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L68" s="33"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L69" s="33">
+        <f t="shared" ref="L69:L73" si="1">(1-L61)/(L61)*100000</f>
+        <v>4837.7703648155157</v>
+      </c>
+      <c r="N69" s="33"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L70" s="33">
+        <f t="shared" si="1"/>
+        <v>4944.4691588669275</v>
+      </c>
+      <c r="N70" s="33"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L71" s="33">
+        <f t="shared" si="1"/>
+        <v>5330.425230513003</v>
+      </c>
+      <c r="N71" s="33"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L72" s="33">
+        <f t="shared" si="1"/>
+        <v>5563.3467170063032</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L73" s="33">
+        <f t="shared" si="1"/>
+        <v>5903.7978372750003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L74" s="33">
+        <f>(1-L66)/(L66)*100000</f>
+        <v>5977.1201756168002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L75" s="33"/>
+      <c r="M75" s="33"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>65</v>
+      </c>
+      <c r="L78" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" s="32">
+        <f>L69</f>
+        <v>4837.7703648155157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>20</v>
+      </c>
+      <c r="L80" s="32">
+        <f t="shared" ref="L80:L84" si="2">L70</f>
+        <v>4944.4691588669275</v>
+      </c>
+    </row>
+    <row r="81" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>40</v>
+      </c>
+      <c r="L81" s="32">
+        <f t="shared" si="2"/>
+        <v>5330.425230513003</v>
+      </c>
+    </row>
+    <row r="82" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>50</v>
+      </c>
+      <c r="L82" s="32">
+        <f t="shared" si="2"/>
+        <v>5563.3467170063032</v>
+      </c>
+    </row>
+    <row r="83" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>70</v>
+      </c>
+      <c r="L83" s="32">
+        <f t="shared" si="2"/>
+        <v>5903.7978372750003</v>
+      </c>
+    </row>
+    <row r="84" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>90</v>
+      </c>
+      <c r="L84" s="32">
+        <f t="shared" si="2"/>
+        <v>5977.1201756168002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H18:H19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,126 +4490,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="30"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="36">
         <f>L3^2*PI()/(3*3^0.5/2*L2^2)</f>
         <v>0.52359671921329498</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="7">
         <f>K10</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="26" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="7">
         <f>F2*A$2</f>
         <v>1.3089917980332374E-3</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="7">
         <f>K11</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="7">
         <f>F3*A$2</f>
         <v>8.9011442266260146E-3</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="21">
         <v>0.36849999999999999</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7">
         <f>K12</f>
         <v>3.9E-2</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="7">
         <f>F4*A$2</f>
         <v>2.0420272049318504E-2</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="21">
         <v>0.42925999999999997</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="16">
         <f>PI()*(L4^2-L3^2)/(3*3^0.5/2*L2^2)</f>
         <v>0.18690114168815064</v>
       </c>
@@ -2454,14 +4618,14 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="7">
         <f>L13</f>
         <v>0.05</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="7">
         <f>F5*A$5</f>
         <v>9.3450570844075317E-3</v>
@@ -2473,37 +4637,37 @@
         <v>23</v>
       </c>
       <c r="L5" s="3">
-        <v>0.37359999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
+      <c r="A6" s="28">
         <f>1-A5-A2</f>
         <v>0.28950213909855438</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="25" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="7">
         <f>M14</f>
         <v>2.3095999999999998E-2</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="7">
         <f>F6*A$6</f>
         <v>6.6863414046202116E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="12"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2511,21 +4675,21 @@
       <c r="F7" s="7"/>
       <c r="G7" s="10"/>
       <c r="H7" s="7"/>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="43"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="36">
         <f>1-A11</f>
-        <v>0.53819005380472962</v>
-      </c>
-      <c r="B8" s="18" t="s">
+        <v>0.52786805476969467</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="6"/>
@@ -2536,23 +4700,23 @@
       <c r="F8" s="7">
         <v>1.54529E-2</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="26" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="7">
         <f>F8*A$8</f>
-        <v>8.3165970824391061E-3</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="45" t="s">
+        <v>8.1570922635506148E-3</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="K8" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="46"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="55"/>
     </row>
     <row r="9" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
@@ -2561,25 +4725,25 @@
       <c r="F9" s="7">
         <v>6.2199900000000002E-2</v>
       </c>
-      <c r="G9" s="48"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="7">
         <f t="shared" ref="H9:H10" si="0">F9*A$8</f>
-        <v>3.3475367527648806E-2</v>
-      </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="36" t="s">
+        <v>3.2833340219869535E-2</v>
+      </c>
+      <c r="J9" s="49"/>
+      <c r="K9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
@@ -2588,82 +4752,82 @@
       <c r="F10" s="7">
         <v>1.9390600000000001E-2</v>
       </c>
-      <c r="G10" s="48"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>1.0435828057305991E-2</v>
-      </c>
-      <c r="J10" s="37" t="s">
+        <v>1.0235678302817242E-2</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="29">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
+      <c r="A11" s="28">
         <f>1-L5^2*PI()/(3*3^0.5/2*L2^2)</f>
-        <v>0.46180994619527038</v>
-      </c>
-      <c r="B11" s="35" t="s">
+        <v>0.47213194523030533</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="25" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="7">
         <f>F6</f>
         <v>2.3095999999999998E-2</v>
       </c>
-      <c r="G11" s="48"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="7">
         <f>F11*A$11</f>
-        <v>1.0665962517325964E-2</v>
-      </c>
-      <c r="J11" s="37" t="s">
+        <v>1.090435940703913E-2</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="29">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="J12" s="37" t="s">
+      <c r="A12" s="17"/>
+      <c r="J12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="29">
         <f>(K11+K10)*2</f>
         <v>3.9E-2</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="J13" s="37" t="s">
+      <c r="A13" s="17"/>
+      <c r="J13" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="51"/>
-      <c r="L13" s="50">
+      <c r="K13" s="30"/>
+      <c r="L13" s="29">
         <v>0.05</v>
       </c>
-      <c r="M13" s="51"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="50">
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="29">
         <v>2.3095999999999998E-2</v>
       </c>
     </row>
@@ -2681,15 +4845,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
